--- a/data/pca/factorExposure/factorExposure_2011-04-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.006907207353527816</v>
+        <v>-0.01201480274597356</v>
       </c>
       <c r="C2">
-        <v>-7.648406166672433e-05</v>
+        <v>0.002200979411328921</v>
       </c>
       <c r="D2">
-        <v>-0.05066373850526058</v>
+        <v>0.02855660350883461</v>
       </c>
       <c r="E2">
-        <v>-0.002113506627594004</v>
+        <v>0.0141907373664015</v>
       </c>
       <c r="F2">
-        <v>0.01739805249983506</v>
+        <v>0.001690768709587817</v>
       </c>
       <c r="G2">
-        <v>0.01844076059670037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.008315539572392871</v>
+      </c>
+      <c r="H2">
+        <v>0.01931992622133264</v>
+      </c>
+      <c r="I2">
+        <v>0.04947211067087589</v>
+      </c>
+      <c r="J2">
+        <v>0.05389269490699128</v>
+      </c>
+      <c r="K2">
+        <v>-0.03656268356054289</v>
+      </c>
+      <c r="L2">
+        <v>0.000588554748619705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.09952799356657223</v>
+        <v>-0.1121765512150378</v>
       </c>
       <c r="C4">
-        <v>-0.03890048925781851</v>
+        <v>0.06476674561427269</v>
       </c>
       <c r="D4">
-        <v>-0.04008148481784922</v>
+        <v>0.02500389249767234</v>
       </c>
       <c r="E4">
-        <v>-0.06341828209460344</v>
+        <v>0.0193886156165492</v>
       </c>
       <c r="F4">
-        <v>0.03144466129165898</v>
+        <v>0.1575930691624831</v>
       </c>
       <c r="G4">
-        <v>0.03116318246353877</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.003325012336286976</v>
+      </c>
+      <c r="H4">
+        <v>0.04548602461522502</v>
+      </c>
+      <c r="I4">
+        <v>-0.02427513923870616</v>
+      </c>
+      <c r="J4">
+        <v>-0.01243285820469707</v>
+      </c>
+      <c r="K4">
+        <v>0.04332921904312501</v>
+      </c>
+      <c r="L4">
+        <v>0.07134325326031944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1286562068889949</v>
+        <v>-0.1298672913728526</v>
       </c>
       <c r="C6">
-        <v>-0.03156507637554996</v>
+        <v>0.03317578159787268</v>
       </c>
       <c r="D6">
-        <v>-0.03502431795556463</v>
+        <v>-0.006994587910982098</v>
       </c>
       <c r="E6">
-        <v>0.006533348051298688</v>
+        <v>0.001867247947015252</v>
       </c>
       <c r="F6">
-        <v>-0.1457471007282694</v>
+        <v>-0.01076030591394262</v>
       </c>
       <c r="G6">
-        <v>-0.1352578869397668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0635127093423131</v>
+      </c>
+      <c r="H6">
+        <v>0.08360324074410329</v>
+      </c>
+      <c r="I6">
+        <v>-0.2114931315453903</v>
+      </c>
+      <c r="J6">
+        <v>-0.3714330652396819</v>
+      </c>
+      <c r="K6">
+        <v>-0.1673430261190158</v>
+      </c>
+      <c r="L6">
+        <v>0.1439114836815426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.08756122537373272</v>
+        <v>-0.08126022463458679</v>
       </c>
       <c r="C7">
-        <v>-0.04552220551392749</v>
+        <v>0.0707045207628396</v>
       </c>
       <c r="D7">
-        <v>-0.04657515305504234</v>
+        <v>0.03507557820955329</v>
       </c>
       <c r="E7">
-        <v>-0.0345987050656846</v>
+        <v>0.01672430450122797</v>
       </c>
       <c r="F7">
-        <v>-0.02415350527469921</v>
+        <v>0.03685432085526516</v>
       </c>
       <c r="G7">
-        <v>0.03465872909608288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.00217871648000914</v>
+      </c>
+      <c r="H7">
+        <v>0.00251792233792001</v>
+      </c>
+      <c r="I7">
+        <v>-0.02024415463089023</v>
+      </c>
+      <c r="J7">
+        <v>0.05154023104586417</v>
+      </c>
+      <c r="K7">
+        <v>0.1162078272128364</v>
+      </c>
+      <c r="L7">
+        <v>0.03538387799447566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.04564252298588581</v>
+        <v>-0.04846966210882531</v>
       </c>
       <c r="C8">
-        <v>0.01495208227078923</v>
+        <v>0.01726438048573298</v>
       </c>
       <c r="D8">
-        <v>-0.07412482297956081</v>
+        <v>0.002661753481948223</v>
       </c>
       <c r="E8">
-        <v>-0.07524860985384747</v>
+        <v>0.01439183997548193</v>
       </c>
       <c r="F8">
-        <v>0.02781853966782975</v>
+        <v>0.1430682507864805</v>
       </c>
       <c r="G8">
-        <v>0.1331692579773066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01482048175616619</v>
+      </c>
+      <c r="H8">
+        <v>0.05600957389195398</v>
+      </c>
+      <c r="I8">
+        <v>-0.01911290737912236</v>
+      </c>
+      <c r="J8">
+        <v>-0.01331142865686915</v>
+      </c>
+      <c r="K8">
+        <v>0.01117400024002468</v>
+      </c>
+      <c r="L8">
+        <v>0.104167926923161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.08819956833437301</v>
+        <v>-0.08630482656860325</v>
       </c>
       <c r="C9">
-        <v>-0.03875989686887505</v>
+        <v>0.05889560751101836</v>
       </c>
       <c r="D9">
-        <v>-0.03806148054949403</v>
+        <v>0.02277027460085126</v>
       </c>
       <c r="E9">
-        <v>-0.04128004517955007</v>
+        <v>-0.0008784735890069574</v>
       </c>
       <c r="F9">
-        <v>0.01282059348090059</v>
+        <v>0.1396615337445531</v>
       </c>
       <c r="G9">
-        <v>0.05428397253724301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.002727328210183541</v>
+      </c>
+      <c r="H9">
+        <v>0.02439819926312544</v>
+      </c>
+      <c r="I9">
+        <v>-0.03145713742815313</v>
+      </c>
+      <c r="J9">
+        <v>0.00651871259434514</v>
+      </c>
+      <c r="K9">
+        <v>0.01511304244636184</v>
+      </c>
+      <c r="L9">
+        <v>0.05620011072185986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.04348429714950341</v>
+        <v>-0.1017071518349248</v>
       </c>
       <c r="C10">
-        <v>0.154164188492517</v>
+        <v>-0.1656021517957498</v>
       </c>
       <c r="D10">
-        <v>-0.08977187252598715</v>
+        <v>0.05764666999333704</v>
       </c>
       <c r="E10">
-        <v>-0.02508630152627424</v>
+        <v>0.02791494434332983</v>
       </c>
       <c r="F10">
-        <v>-0.04327380674500379</v>
+        <v>-0.00961145788988174</v>
       </c>
       <c r="G10">
-        <v>0.02514130145900002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01873176615501099</v>
+      </c>
+      <c r="H10">
+        <v>-0.05118877245262769</v>
+      </c>
+      <c r="I10">
+        <v>-0.02240356967722783</v>
+      </c>
+      <c r="J10">
+        <v>-0.03329759110057347</v>
+      </c>
+      <c r="K10">
+        <v>0.05394842861576177</v>
+      </c>
+      <c r="L10">
+        <v>-0.03641868416150727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07363536454910956</v>
+        <v>-0.07646467429300723</v>
       </c>
       <c r="C11">
-        <v>-0.0617665695994526</v>
+        <v>0.07059407539309133</v>
       </c>
       <c r="D11">
-        <v>-0.004220855156482327</v>
+        <v>0.00594165567678115</v>
       </c>
       <c r="E11">
-        <v>0.006256664330292809</v>
+        <v>-0.02525509694322234</v>
       </c>
       <c r="F11">
-        <v>0.01308599959969647</v>
+        <v>0.1344095809415924</v>
       </c>
       <c r="G11">
-        <v>0.1478030126674632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01199873982105001</v>
+      </c>
+      <c r="H11">
+        <v>-0.04110821966689928</v>
+      </c>
+      <c r="I11">
+        <v>0.007610031328577674</v>
+      </c>
+      <c r="J11">
+        <v>0.08939459663187814</v>
+      </c>
+      <c r="K11">
+        <v>-0.04247841799938506</v>
+      </c>
+      <c r="L11">
+        <v>-0.001901679417968906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06867356594343971</v>
+        <v>-0.07014751381932703</v>
       </c>
       <c r="C12">
-        <v>-0.03678847298619917</v>
+        <v>0.06203804472394002</v>
       </c>
       <c r="D12">
-        <v>0.003368546350322816</v>
+        <v>0.01126881229379288</v>
       </c>
       <c r="E12">
-        <v>-0.03348766028336534</v>
+        <v>-0.0247298411686516</v>
       </c>
       <c r="F12">
-        <v>-0.00175771121822928</v>
+        <v>0.1402373398224828</v>
       </c>
       <c r="G12">
-        <v>0.1433133577589383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02642175509088031</v>
+      </c>
+      <c r="H12">
+        <v>-0.0134646974369844</v>
+      </c>
+      <c r="I12">
+        <v>-0.02975149600478428</v>
+      </c>
+      <c r="J12">
+        <v>0.09331213501039812</v>
+      </c>
+      <c r="K12">
+        <v>-0.05917060738759615</v>
+      </c>
+      <c r="L12">
+        <v>0.03293002123437204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.06223883873494594</v>
+        <v>-0.0421712873868588</v>
       </c>
       <c r="C13">
-        <v>-0.003609832780765872</v>
+        <v>0.02635327461365104</v>
       </c>
       <c r="D13">
-        <v>-0.01004496313934611</v>
+        <v>0.007292418296022537</v>
       </c>
       <c r="E13">
-        <v>-0.03332641036772216</v>
+        <v>0.02302713125352121</v>
       </c>
       <c r="F13">
-        <v>0.03382790471501205</v>
+        <v>0.04421099500960497</v>
       </c>
       <c r="G13">
-        <v>0.04993993486128526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.000555601779926274</v>
+      </c>
+      <c r="H13">
+        <v>0.03236024630963655</v>
+      </c>
+      <c r="I13">
+        <v>-0.03037976050000913</v>
+      </c>
+      <c r="J13">
+        <v>-0.003760070677584136</v>
+      </c>
+      <c r="K13">
+        <v>0.04102837601196681</v>
+      </c>
+      <c r="L13">
+        <v>-0.004102740546191359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.0520380251773048</v>
+        <v>-0.04246629232971605</v>
       </c>
       <c r="C14">
-        <v>-0.002761784627979608</v>
+        <v>0.02149714847028752</v>
       </c>
       <c r="D14">
-        <v>-0.02833069341564587</v>
+        <v>0.009039497385740898</v>
       </c>
       <c r="E14">
-        <v>-0.02320925745708604</v>
+        <v>-0.01281630211145062</v>
       </c>
       <c r="F14">
-        <v>-0.003375779958713427</v>
+        <v>0.06070239709738742</v>
       </c>
       <c r="G14">
-        <v>0.04040092317466289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.009468295607529922</v>
+      </c>
+      <c r="H14">
+        <v>0.008342544494410587</v>
+      </c>
+      <c r="I14">
+        <v>0.01474899789905786</v>
+      </c>
+      <c r="J14">
+        <v>-0.05158050975489095</v>
+      </c>
+      <c r="K14">
+        <v>0.06304392915466418</v>
+      </c>
+      <c r="L14">
+        <v>0.09145607686962393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03718036485811662</v>
+        <v>-0.02380618035894807</v>
       </c>
       <c r="C15">
-        <v>0.008371383896042211</v>
+        <v>0.01271625861380445</v>
       </c>
       <c r="D15">
-        <v>-0.01307324654799056</v>
+        <v>-0.004192884379668053</v>
       </c>
       <c r="E15">
-        <v>-0.008002473830875221</v>
+        <v>0.04810509162095365</v>
       </c>
       <c r="F15">
-        <v>0.0130538477930024</v>
+        <v>0.00881828148504984</v>
       </c>
       <c r="G15">
-        <v>0.01804687530470397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03335505666441092</v>
+      </c>
+      <c r="H15">
+        <v>0.001835032091102035</v>
+      </c>
+      <c r="I15">
+        <v>-0.01104853867949085</v>
+      </c>
+      <c r="J15">
+        <v>-0.04197107884082288</v>
+      </c>
+      <c r="K15">
+        <v>0.0694594865354226</v>
+      </c>
+      <c r="L15">
+        <v>0.01517163828840139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.07682341086563782</v>
+        <v>-0.07983409968705858</v>
       </c>
       <c r="C16">
-        <v>-0.07208889264964696</v>
+        <v>0.07279173814135957</v>
       </c>
       <c r="D16">
-        <v>-0.016466721154892</v>
+        <v>0.001811229381480341</v>
       </c>
       <c r="E16">
-        <v>-0.03954195052739542</v>
+        <v>-0.01810539585531802</v>
       </c>
       <c r="F16">
-        <v>0.03783550921683504</v>
+        <v>0.1294005204325609</v>
       </c>
       <c r="G16">
-        <v>0.1177583201701682</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02301794496884082</v>
+      </c>
+      <c r="H16">
+        <v>-0.02570131696313345</v>
+      </c>
+      <c r="I16">
+        <v>0.006689929885441623</v>
+      </c>
+      <c r="J16">
+        <v>0.1004593316444602</v>
+      </c>
+      <c r="K16">
+        <v>-0.04000373365258175</v>
+      </c>
+      <c r="L16">
+        <v>0.03309050402419467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.05004714486371939</v>
+        <v>-0.04630675473757918</v>
       </c>
       <c r="C20">
-        <v>-0.01883454699091947</v>
+        <v>0.03720799820583806</v>
       </c>
       <c r="D20">
-        <v>-0.01610250372634819</v>
+        <v>0.01586018821437831</v>
       </c>
       <c r="E20">
-        <v>-0.02295934991557037</v>
+        <v>0.02257782768158651</v>
       </c>
       <c r="F20">
-        <v>0.003637305787323145</v>
+        <v>0.06581730586250341</v>
       </c>
       <c r="G20">
-        <v>0.09663730449031621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01668196709975179</v>
+      </c>
+      <c r="H20">
+        <v>0.0157545963653494</v>
+      </c>
+      <c r="I20">
+        <v>-0.03179931832297725</v>
+      </c>
+      <c r="J20">
+        <v>0.00455814895293367</v>
+      </c>
+      <c r="K20">
+        <v>0.05444374204953682</v>
+      </c>
+      <c r="L20">
+        <v>0.04247927096594386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02515551906641039</v>
+        <v>-0.02276806483701451</v>
       </c>
       <c r="C21">
-        <v>-0.04012634785257052</v>
+        <v>0.01991081384415749</v>
       </c>
       <c r="D21">
-        <v>0.006754211140132692</v>
+        <v>0.00259080128445767</v>
       </c>
       <c r="E21">
-        <v>-0.01866743141445097</v>
+        <v>0.001599137312507379</v>
       </c>
       <c r="F21">
-        <v>-0.08352337258709068</v>
+        <v>0.06669022903512938</v>
       </c>
       <c r="G21">
-        <v>-0.04787093151620139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0423293185265752</v>
+      </c>
+      <c r="H21">
+        <v>-0.04239499024159066</v>
+      </c>
+      <c r="I21">
+        <v>-0.1014922155318127</v>
+      </c>
+      <c r="J21">
+        <v>-0.01410165370691058</v>
+      </c>
+      <c r="K21">
+        <v>0.1467669150074911</v>
+      </c>
+      <c r="L21">
+        <v>-0.01183989405320184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.03909985041049777</v>
+        <v>-0.05094254668661329</v>
       </c>
       <c r="C22">
-        <v>-0.00104376962344868</v>
+        <v>0.01593606745824535</v>
       </c>
       <c r="D22">
-        <v>0.02613713426159306</v>
+        <v>-0.08850363801792795</v>
       </c>
       <c r="E22">
-        <v>-0.567768510750177</v>
+        <v>0.6537985894751821</v>
       </c>
       <c r="F22">
-        <v>0.1216756824504578</v>
+        <v>-0.06009645761178827</v>
       </c>
       <c r="G22">
-        <v>-0.2788570877115828</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1225903351301568</v>
+      </c>
+      <c r="H22">
+        <v>-0.07385019881415482</v>
+      </c>
+      <c r="I22">
+        <v>-0.03141744219075911</v>
+      </c>
+      <c r="J22">
+        <v>0.05789488130374358</v>
+      </c>
+      <c r="K22">
+        <v>-0.05766797221287706</v>
+      </c>
+      <c r="L22">
+        <v>-0.02013053249516977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.03912331933715606</v>
+        <v>-0.05136998938126029</v>
       </c>
       <c r="C23">
-        <v>-0.001512254151612925</v>
+        <v>0.01652577431596926</v>
       </c>
       <c r="D23">
-        <v>0.0249376277637782</v>
+        <v>-0.0888302446039452</v>
       </c>
       <c r="E23">
-        <v>-0.567442319067901</v>
+        <v>0.655577802015753</v>
       </c>
       <c r="F23">
-        <v>0.1226259208786502</v>
+        <v>-0.05758699998031791</v>
       </c>
       <c r="G23">
-        <v>-0.2804778556808925</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1235553506155448</v>
+      </c>
+      <c r="H23">
+        <v>-0.07132665787638537</v>
+      </c>
+      <c r="I23">
+        <v>-0.03071967502918424</v>
+      </c>
+      <c r="J23">
+        <v>0.05534197868055907</v>
+      </c>
+      <c r="K23">
+        <v>-0.06097819479597789</v>
+      </c>
+      <c r="L23">
+        <v>-0.01968474890244736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.08546550983981439</v>
+        <v>-0.08341838952218951</v>
       </c>
       <c r="C24">
-        <v>-0.04789287020084548</v>
+        <v>0.06535806444201754</v>
       </c>
       <c r="D24">
-        <v>-0.01670691861739614</v>
+        <v>0.00803908563411071</v>
       </c>
       <c r="E24">
-        <v>-0.03667188516816355</v>
+        <v>-0.01565830559113217</v>
       </c>
       <c r="F24">
-        <v>0.009372236357328319</v>
+        <v>0.1284712621933793</v>
       </c>
       <c r="G24">
-        <v>0.1184703235940249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01759185134239064</v>
+      </c>
+      <c r="H24">
+        <v>-0.05605871027667959</v>
+      </c>
+      <c r="I24">
+        <v>0.01461730884945847</v>
+      </c>
+      <c r="J24">
+        <v>0.09250444720853461</v>
+      </c>
+      <c r="K24">
+        <v>-0.06333179170124935</v>
+      </c>
+      <c r="L24">
+        <v>0.01004665289841888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07564439196910287</v>
+        <v>-0.08156518292754364</v>
       </c>
       <c r="C25">
-        <v>-0.0207274916229502</v>
+        <v>0.04992615412132456</v>
       </c>
       <c r="D25">
-        <v>-0.02281292234399112</v>
+        <v>0.01884023371917855</v>
       </c>
       <c r="E25">
-        <v>-0.02549096859056022</v>
+        <v>-0.02644204578612272</v>
       </c>
       <c r="F25">
-        <v>-0.002082777702246982</v>
+        <v>0.1285074723743981</v>
       </c>
       <c r="G25">
-        <v>0.1099035803687954</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02837624842921766</v>
+      </c>
+      <c r="H25">
+        <v>-0.02913485165314022</v>
+      </c>
+      <c r="I25">
+        <v>0.006958604560049196</v>
+      </c>
+      <c r="J25">
+        <v>0.08103460180268858</v>
+      </c>
+      <c r="K25">
+        <v>-0.06264656370867047</v>
+      </c>
+      <c r="L25">
+        <v>0.03858834103738931</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.04989521553950679</v>
+        <v>-0.04366436991187295</v>
       </c>
       <c r="C26">
-        <v>-0.02950709801444261</v>
+        <v>0.0120893249135188</v>
       </c>
       <c r="D26">
-        <v>-0.02921882308992137</v>
+        <v>-0.001507063533309581</v>
       </c>
       <c r="E26">
-        <v>-0.01457812292308093</v>
+        <v>0.008847383556000803</v>
       </c>
       <c r="F26">
-        <v>0.02002406187914389</v>
+        <v>0.05307307633624961</v>
       </c>
       <c r="G26">
-        <v>0.050550112892755</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02922478190889697</v>
+      </c>
+      <c r="H26">
+        <v>-0.02534654952096528</v>
+      </c>
+      <c r="I26">
+        <v>0.004335426844494394</v>
+      </c>
+      <c r="J26">
+        <v>-0.03377872881016739</v>
+      </c>
+      <c r="K26">
+        <v>0.09725801949658841</v>
+      </c>
+      <c r="L26">
+        <v>0.02413452441057911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.07245304520102416</v>
+        <v>-0.1250573566184245</v>
       </c>
       <c r="C28">
-        <v>0.2927126128419332</v>
+        <v>-0.3004904229224812</v>
       </c>
       <c r="D28">
-        <v>-0.06880735178010107</v>
+        <v>-0.001746692695848534</v>
       </c>
       <c r="E28">
-        <v>0.03526112150101875</v>
+        <v>-0.008406580409835189</v>
       </c>
       <c r="F28">
-        <v>-0.04419015837910238</v>
+        <v>0.0158400193071755</v>
       </c>
       <c r="G28">
-        <v>-0.02642331223229879</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0007533067214586343</v>
+      </c>
+      <c r="H28">
+        <v>0.006021431064922287</v>
+      </c>
+      <c r="I28">
+        <v>-0.03118782505762433</v>
+      </c>
+      <c r="J28">
+        <v>0.01089854454090147</v>
+      </c>
+      <c r="K28">
+        <v>0.003184766154297098</v>
+      </c>
+      <c r="L28">
+        <v>-0.02303311939588229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05556154028550324</v>
+        <v>-0.04277119752465801</v>
       </c>
       <c r="C29">
-        <v>-0.004706685717868205</v>
+        <v>0.02478912972162651</v>
       </c>
       <c r="D29">
-        <v>-0.01892420837260038</v>
+        <v>0.02465753494544901</v>
       </c>
       <c r="E29">
-        <v>-0.04275227072383458</v>
+        <v>-9.569320250331717e-05</v>
       </c>
       <c r="F29">
-        <v>0.02707778927258246</v>
+        <v>0.06276665212227843</v>
       </c>
       <c r="G29">
-        <v>0.01852906625905807</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03610027703626514</v>
+      </c>
+      <c r="H29">
+        <v>0.0008979194496845434</v>
+      </c>
+      <c r="I29">
+        <v>-0.001207356053771032</v>
+      </c>
+      <c r="J29">
+        <v>-0.03990522077376026</v>
+      </c>
+      <c r="K29">
+        <v>0.06994130399129352</v>
+      </c>
+      <c r="L29">
+        <v>0.06858293548389048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1186795550129235</v>
+        <v>-0.1072964526442542</v>
       </c>
       <c r="C30">
-        <v>0.01055275585441574</v>
+        <v>0.05984238233288885</v>
       </c>
       <c r="D30">
-        <v>-0.07128429115385304</v>
+        <v>-0.02070339648049629</v>
       </c>
       <c r="E30">
-        <v>-0.186940666493855</v>
+        <v>-0.01768576317949683</v>
       </c>
       <c r="F30">
-        <v>-0.03653449005461845</v>
+        <v>0.2018997508174561</v>
       </c>
       <c r="G30">
-        <v>0.1776168279329519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1199500983865198</v>
+      </c>
+      <c r="H30">
+        <v>-0.03007283231552892</v>
+      </c>
+      <c r="I30">
+        <v>-0.2421063212356254</v>
+      </c>
+      <c r="J30">
+        <v>0.145634928447579</v>
+      </c>
+      <c r="K30">
+        <v>-0.1202284834831972</v>
+      </c>
+      <c r="L30">
+        <v>0.04024446074498386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05635296939687621</v>
+        <v>-0.03963013482414032</v>
       </c>
       <c r="C31">
-        <v>-0.01721131750378385</v>
+        <v>0.03996695447136597</v>
       </c>
       <c r="D31">
-        <v>0.00605337200455418</v>
+        <v>0.002342993237703166</v>
       </c>
       <c r="E31">
-        <v>-0.01396426318581193</v>
+        <v>0.004424717090976473</v>
       </c>
       <c r="F31">
-        <v>0.02081904813528847</v>
+        <v>0.02468534543882346</v>
       </c>
       <c r="G31">
-        <v>-0.002112532369504485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01407805842332979</v>
+      </c>
+      <c r="H31">
+        <v>0.009500935298916444</v>
+      </c>
+      <c r="I31">
+        <v>0.03745931692452871</v>
+      </c>
+      <c r="J31">
+        <v>-0.01925228427801032</v>
+      </c>
+      <c r="K31">
+        <v>0.00345192377748865</v>
+      </c>
+      <c r="L31">
+        <v>0.04521051735391644</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.03230488814496216</v>
+        <v>-0.04973040454689696</v>
       </c>
       <c r="C32">
-        <v>0.02597405815528543</v>
+        <v>0.003580066733623385</v>
       </c>
       <c r="D32">
-        <v>-0.002340854507798141</v>
+        <v>-0.02833849409680885</v>
       </c>
       <c r="E32">
-        <v>-0.0838920277358837</v>
+        <v>-0.02367349128328904</v>
       </c>
       <c r="F32">
-        <v>0.06718249537587392</v>
+        <v>0.07134774961418493</v>
       </c>
       <c r="G32">
-        <v>0.0666571369925143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.005784086228935183</v>
+      </c>
+      <c r="H32">
+        <v>0.00529863554243295</v>
+      </c>
+      <c r="I32">
+        <v>0.01537119546031139</v>
+      </c>
+      <c r="J32">
+        <v>0.006506913079027662</v>
+      </c>
+      <c r="K32">
+        <v>0.07066514892608314</v>
+      </c>
+      <c r="L32">
+        <v>0.05399326342136838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1096908044817398</v>
+        <v>-0.09910495250110433</v>
       </c>
       <c r="C33">
-        <v>-0.01963391299405615</v>
+        <v>0.0563542071674865</v>
       </c>
       <c r="D33">
-        <v>0.0117736652219927</v>
+        <v>-0.001425492335777858</v>
       </c>
       <c r="E33">
-        <v>-0.000917731105563484</v>
+        <v>-0.02654051867044378</v>
       </c>
       <c r="F33">
-        <v>0.04794044526978609</v>
+        <v>0.08214756791995527</v>
       </c>
       <c r="G33">
-        <v>0.0385065699706214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.007465997188835598</v>
+      </c>
+      <c r="H33">
+        <v>-0.01409397141259667</v>
+      </c>
+      <c r="I33">
+        <v>0.006619153604771591</v>
+      </c>
+      <c r="J33">
+        <v>-0.008103353038872307</v>
+      </c>
+      <c r="K33">
+        <v>-0.0004524691237404501</v>
+      </c>
+      <c r="L33">
+        <v>0.02757322130334235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.06368985094344554</v>
+        <v>-0.06737184253427649</v>
       </c>
       <c r="C34">
-        <v>-0.05064233082499973</v>
+        <v>0.05459053978428153</v>
       </c>
       <c r="D34">
-        <v>-0.004504291085253847</v>
+        <v>0.007893247023711839</v>
       </c>
       <c r="E34">
-        <v>-0.01903171865303497</v>
+        <v>-0.02351759718496988</v>
       </c>
       <c r="F34">
-        <v>0.01148897350555379</v>
+        <v>0.116408378379792</v>
       </c>
       <c r="G34">
-        <v>0.08814068708384892</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01780376722405008</v>
+      </c>
+      <c r="H34">
+        <v>-0.01923366663628454</v>
+      </c>
+      <c r="I34">
+        <v>0.007085289104281326</v>
+      </c>
+      <c r="J34">
+        <v>0.07775286284021325</v>
+      </c>
+      <c r="K34">
+        <v>-0.0006616652521318437</v>
+      </c>
+      <c r="L34">
+        <v>0.04793910795873833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04474131244349396</v>
+        <v>-0.02255217774211448</v>
       </c>
       <c r="C35">
-        <v>-0.009815810910280821</v>
+        <v>0.02028264377399381</v>
       </c>
       <c r="D35">
-        <v>0.0146676963983917</v>
+        <v>0.003290327301409874</v>
       </c>
       <c r="E35">
-        <v>-0.01321083811439249</v>
+        <v>-0.006271121964019965</v>
       </c>
       <c r="F35">
-        <v>-0.02759944685994867</v>
+        <v>0.03434160580797726</v>
       </c>
       <c r="G35">
-        <v>0.06028516852120438</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.02326850821463547</v>
+      </c>
+      <c r="H35">
+        <v>0.002480674517335543</v>
+      </c>
+      <c r="I35">
+        <v>-0.03331596325903015</v>
+      </c>
+      <c r="J35">
+        <v>0.03409582821600439</v>
+      </c>
+      <c r="K35">
+        <v>0.0481919119074665</v>
+      </c>
+      <c r="L35">
+        <v>0.04126778263958621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03525174404161163</v>
+        <v>-0.02795956674905055</v>
       </c>
       <c r="C36">
-        <v>-0.001044698712820278</v>
+        <v>0.01324513982762794</v>
       </c>
       <c r="D36">
-        <v>-0.0235312148757068</v>
+        <v>0.001460102790964161</v>
       </c>
       <c r="E36">
-        <v>-0.03215816656090469</v>
+        <v>0.01121372572451494</v>
       </c>
       <c r="F36">
-        <v>0.003153316507169313</v>
+        <v>0.06834969527656867</v>
       </c>
       <c r="G36">
-        <v>0.05533291082081466</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02044612866383029</v>
+      </c>
+      <c r="H36">
+        <v>-0.006416103493596515</v>
+      </c>
+      <c r="I36">
+        <v>-0.01521795645224824</v>
+      </c>
+      <c r="J36">
+        <v>-0.02560120113522486</v>
+      </c>
+      <c r="K36">
+        <v>0.01719155395000528</v>
+      </c>
+      <c r="L36">
+        <v>0.03173485673663449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.0512622131695936</v>
+        <v>-0.02418799722484984</v>
       </c>
       <c r="C38">
-        <v>-0.01937053684021725</v>
+        <v>0.03064914751407617</v>
       </c>
       <c r="D38">
-        <v>0.001614075635212986</v>
+        <v>0.008271856579105546</v>
       </c>
       <c r="E38">
-        <v>-0.0113811350067197</v>
+        <v>0.01878278724343169</v>
       </c>
       <c r="F38">
-        <v>-0.0009837961275258337</v>
+        <v>-0.04783381574297996</v>
       </c>
       <c r="G38">
-        <v>0.04477315088661486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02524662467948902</v>
+      </c>
+      <c r="H38">
+        <v>-0.005014428590333549</v>
+      </c>
+      <c r="I38">
+        <v>-0.02470691179296573</v>
+      </c>
+      <c r="J38">
+        <v>-0.004208732512398618</v>
+      </c>
+      <c r="K38">
+        <v>0.04477688342482342</v>
+      </c>
+      <c r="L38">
+        <v>-0.06140887729985964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.1065923842490859</v>
+        <v>-0.1110491716180103</v>
       </c>
       <c r="C39">
-        <v>-0.045868298494497</v>
+        <v>0.08404505448459154</v>
       </c>
       <c r="D39">
-        <v>-0.002767209380118339</v>
+        <v>0.009535966702424481</v>
       </c>
       <c r="E39">
-        <v>-0.06726571280939442</v>
+        <v>-0.08945617311866673</v>
       </c>
       <c r="F39">
-        <v>0.01171723738402796</v>
+        <v>0.1503104754203032</v>
       </c>
       <c r="G39">
-        <v>0.1815909114321464</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1144328189245366</v>
+      </c>
+      <c r="H39">
+        <v>-0.004207388540378375</v>
+      </c>
+      <c r="I39">
+        <v>-0.03756912168639118</v>
+      </c>
+      <c r="J39">
+        <v>0.2008263009844067</v>
+      </c>
+      <c r="K39">
+        <v>-0.113011749695336</v>
+      </c>
+      <c r="L39">
+        <v>0.01309286576636185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.05261368367851322</v>
+        <v>-0.03236805501273781</v>
       </c>
       <c r="C40">
-        <v>-0.01826914883484774</v>
+        <v>0.05795123916008974</v>
       </c>
       <c r="D40">
-        <v>0.02183868634118997</v>
+        <v>0.006995774090433745</v>
       </c>
       <c r="E40">
-        <v>-0.1008959528149443</v>
+        <v>0.03536764743899846</v>
       </c>
       <c r="F40">
-        <v>0.001915128707819994</v>
+        <v>0.1103674825400408</v>
       </c>
       <c r="G40">
-        <v>0.2163286035147058</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.00996855518577759</v>
+      </c>
+      <c r="H40">
+        <v>-0.08658557961226827</v>
+      </c>
+      <c r="I40">
+        <v>-0.05173252412472137</v>
+      </c>
+      <c r="J40">
+        <v>-0.01242267280804679</v>
+      </c>
+      <c r="K40">
+        <v>0.06316467304292385</v>
+      </c>
+      <c r="L40">
+        <v>-0.1063528149668676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.04985538544746031</v>
+        <v>-0.03560278227568117</v>
       </c>
       <c r="C41">
-        <v>-0.03476088970886028</v>
+        <v>0.03003246056466081</v>
       </c>
       <c r="D41">
-        <v>-0.005398048903998997</v>
+        <v>0.01517288371732521</v>
       </c>
       <c r="E41">
-        <v>0.004703984098362335</v>
+        <v>-0.01683910201818734</v>
       </c>
       <c r="F41">
-        <v>0.01924304249381238</v>
+        <v>0.01985134908482522</v>
       </c>
       <c r="G41">
-        <v>0.08030075119218213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02049504164784086</v>
+      </c>
+      <c r="H41">
+        <v>0.009736343335730977</v>
+      </c>
+      <c r="I41">
+        <v>-0.002199823959256913</v>
+      </c>
+      <c r="J41">
+        <v>0.01530670704922385</v>
+      </c>
+      <c r="K41">
+        <v>0.03184521306528759</v>
+      </c>
+      <c r="L41">
+        <v>0.01254961856436595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.07530423217354165</v>
+        <v>-0.05044838476577126</v>
       </c>
       <c r="C43">
-        <v>-0.0319598180250316</v>
+        <v>0.03073409249825232</v>
       </c>
       <c r="D43">
-        <v>-0.02424987200014503</v>
+        <v>0.008613539438201402</v>
       </c>
       <c r="E43">
-        <v>-0.03153542993760083</v>
+        <v>0.01283678002488529</v>
       </c>
       <c r="F43">
-        <v>0.01483559114497492</v>
+        <v>0.01249400356407991</v>
       </c>
       <c r="G43">
-        <v>0.03151449589787882</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.04572914895515184</v>
+      </c>
+      <c r="H43">
+        <v>0.02370276181817454</v>
+      </c>
+      <c r="I43">
+        <v>-0.01022314996334109</v>
+      </c>
+      <c r="J43">
+        <v>0.02044559932826784</v>
+      </c>
+      <c r="K43">
+        <v>-0.003395757756400331</v>
+      </c>
+      <c r="L43">
+        <v>0.0275730263166923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.06372675922636377</v>
+        <v>-0.1121296947429608</v>
       </c>
       <c r="C44">
-        <v>-0.02727882263793204</v>
+        <v>0.09339680342544436</v>
       </c>
       <c r="D44">
-        <v>-0.09883424473148418</v>
+        <v>0.05564669864213617</v>
       </c>
       <c r="E44">
-        <v>-0.07567484620596573</v>
+        <v>0.09912835423698897</v>
       </c>
       <c r="F44">
-        <v>0.02281528680491521</v>
+        <v>0.2068278429724313</v>
       </c>
       <c r="G44">
-        <v>0.1303923250621012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02788761126034951</v>
+      </c>
+      <c r="H44">
+        <v>-0.09503378617811575</v>
+      </c>
+      <c r="I44">
+        <v>-0.05540642979376111</v>
+      </c>
+      <c r="J44">
+        <v>-0.07570739709471939</v>
+      </c>
+      <c r="K44">
+        <v>0.2110333199485856</v>
+      </c>
+      <c r="L44">
+        <v>-0.05123778837677667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2410,443 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.0445510269436596</v>
+        <v>-0.03353552149020417</v>
       </c>
       <c r="C46">
-        <v>-0.03942249262551883</v>
+        <v>0.02353221778288418</v>
       </c>
       <c r="D46">
-        <v>-0.02024339504306992</v>
+        <v>0.02295010916962749</v>
       </c>
       <c r="E46">
-        <v>-0.05598962467724856</v>
+        <v>0.04099629201486475</v>
       </c>
       <c r="F46">
-        <v>0.01044822559133783</v>
+        <v>0.03306986208126755</v>
       </c>
       <c r="G46">
-        <v>0.04456721710566353</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01451110693410912</v>
+      </c>
+      <c r="H46">
+        <v>-0.03790603613514697</v>
+      </c>
+      <c r="I46">
+        <v>-0.003182523140018468</v>
+      </c>
+      <c r="J46">
+        <v>-0.02469379156402524</v>
+      </c>
+      <c r="K46">
+        <v>0.08331707708048049</v>
+      </c>
+      <c r="L46">
+        <v>0.106921195757061</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04855161965105322</v>
+        <v>-0.04211398516843674</v>
       </c>
       <c r="C47">
-        <v>-0.004543953066614741</v>
+        <v>0.02389019768776785</v>
       </c>
       <c r="D47">
-        <v>-0.008916496562034474</v>
+        <v>0.003971000311922051</v>
       </c>
       <c r="E47">
-        <v>-0.06694833113834087</v>
+        <v>0.01877819004994705</v>
       </c>
       <c r="F47">
-        <v>-0.009436485618262212</v>
+        <v>0.03579249527434808</v>
       </c>
       <c r="G47">
-        <v>-0.01353996263595784</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.0007832727559685067</v>
+      </c>
+      <c r="H47">
+        <v>0.004472650123053636</v>
+      </c>
+      <c r="I47">
+        <v>-0.01776770064582761</v>
+      </c>
+      <c r="J47">
+        <v>-0.03307251201087377</v>
+      </c>
+      <c r="K47">
+        <v>0.04559434385568154</v>
+      </c>
+      <c r="L47">
+        <v>0.0278563390407793</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04160926946517125</v>
+        <v>-0.04386439841036737</v>
       </c>
       <c r="C48">
-        <v>0.004262562746982661</v>
+        <v>0.01410519288580776</v>
       </c>
       <c r="D48">
-        <v>0.002535813834543836</v>
+        <v>0.008230553844886425</v>
       </c>
       <c r="E48">
-        <v>-0.03518391762320868</v>
+        <v>0.003460694854512939</v>
       </c>
       <c r="F48">
-        <v>0.0001096114411417463</v>
+        <v>0.06785776736799645</v>
       </c>
       <c r="G48">
-        <v>0.0351158989906229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.002467362359308993</v>
+      </c>
+      <c r="H48">
+        <v>-0.02670980602633153</v>
+      </c>
+      <c r="I48">
+        <v>-0.02223999397164892</v>
+      </c>
+      <c r="J48">
+        <v>0.00179665786344799</v>
+      </c>
+      <c r="K48">
+        <v>0.02555509452706112</v>
+      </c>
+      <c r="L48">
+        <v>0.06063244361427173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.2355643357078939</v>
+        <v>-0.2249585994137643</v>
       </c>
       <c r="C49">
-        <v>-0.1039690984315077</v>
+        <v>0.0529223133649844</v>
       </c>
       <c r="D49">
-        <v>-0.04635928116454038</v>
+        <v>0.08330861308189108</v>
       </c>
       <c r="E49">
-        <v>0.07847196408743347</v>
+        <v>-0.0427795558818887</v>
       </c>
       <c r="F49">
-        <v>-0.1593671004595286</v>
+        <v>-0.2315600208555409</v>
       </c>
       <c r="G49">
-        <v>-0.06776349304930601</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.1223090720161252</v>
+      </c>
+      <c r="H49">
+        <v>-0.1782000583133645</v>
+      </c>
+      <c r="I49">
+        <v>-0.04194753364060861</v>
+      </c>
+      <c r="J49">
+        <v>0.1387044421618645</v>
+      </c>
+      <c r="K49">
+        <v>-0.161717291215255</v>
+      </c>
+      <c r="L49">
+        <v>-0.04358035349926886</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05351075166635683</v>
+        <v>-0.04471574278326564</v>
       </c>
       <c r="C50">
-        <v>-0.01579711393396916</v>
+        <v>0.02952783153383164</v>
       </c>
       <c r="D50">
-        <v>0.007139182974028562</v>
+        <v>9.539050376476453e-05</v>
       </c>
       <c r="E50">
-        <v>-0.02836724806078186</v>
+        <v>-0.002728717084906097</v>
       </c>
       <c r="F50">
-        <v>0.04303480937225856</v>
+        <v>0.04780178758649704</v>
       </c>
       <c r="G50">
-        <v>-0.01031352345096456</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03217230215709665</v>
+      </c>
+      <c r="H50">
+        <v>-0.0007821511565492043</v>
+      </c>
+      <c r="I50">
+        <v>0.02653496964622538</v>
+      </c>
+      <c r="J50">
+        <v>-0.02731443317768877</v>
+      </c>
+      <c r="K50">
+        <v>0.009327268476198539</v>
+      </c>
+      <c r="L50">
+        <v>0.05248353612312209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.0343235340872677</v>
+        <v>-0.02300151817691708</v>
       </c>
       <c r="C51">
-        <v>-0.01560342373494209</v>
+        <v>-0.0004728007541772398</v>
       </c>
       <c r="D51">
-        <v>-0.01246628507717213</v>
+        <v>0.01650620765870292</v>
       </c>
       <c r="E51">
-        <v>0.006923202624048636</v>
+        <v>0.002072176003240726</v>
       </c>
       <c r="F51">
-        <v>0.0001624885071557593</v>
+        <v>-0.02290671063704967</v>
       </c>
       <c r="G51">
-        <v>0.01466540862695786</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.01055262786424306</v>
+      </c>
+      <c r="H51">
+        <v>0.01320780889717872</v>
+      </c>
+      <c r="I51">
+        <v>-0.003591437549241363</v>
+      </c>
+      <c r="J51">
+        <v>0.03639539094140548</v>
+      </c>
+      <c r="K51">
+        <v>-0.04234911955797954</v>
+      </c>
+      <c r="L51">
+        <v>0.0004117802164408805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.05825791414025792</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.03195188245836056</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.001597785866554654</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.00398142818911316</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01895437140434145</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.08069976912169474</v>
+      </c>
+      <c r="H52">
+        <v>-0.0024988472787667</v>
+      </c>
+      <c r="I52">
+        <v>0.06530030500705987</v>
+      </c>
+      <c r="J52">
+        <v>-0.02528130258407077</v>
+      </c>
+      <c r="K52">
+        <v>-0.006306913359023166</v>
+      </c>
+      <c r="L52">
+        <v>-0.004507363810725435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1627687002303396</v>
+        <v>-0.159864002745547</v>
       </c>
       <c r="C53">
-        <v>-0.007234964919479127</v>
+        <v>0.0355362385667858</v>
       </c>
       <c r="D53">
-        <v>-0.005703370830526563</v>
+        <v>0.02263367166962819</v>
       </c>
       <c r="E53">
-        <v>0.0573618940524222</v>
+        <v>-0.0004598227479763277</v>
       </c>
       <c r="F53">
-        <v>0.2408778574246902</v>
+        <v>-0.07531466993022515</v>
       </c>
       <c r="G53">
-        <v>-0.04713820842615399</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.1475748136320232</v>
+      </c>
+      <c r="H53">
+        <v>0.0616949085854179</v>
+      </c>
+      <c r="I53">
+        <v>0.2265195368240627</v>
+      </c>
+      <c r="J53">
+        <v>-0.1019197156559227</v>
+      </c>
+      <c r="K53">
+        <v>-0.01707887194711978</v>
+      </c>
+      <c r="L53">
+        <v>-0.02462542449342417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.05117208048350994</v>
+        <v>-0.05744066296319205</v>
       </c>
       <c r="C54">
-        <v>-0.00568943241206145</v>
+        <v>0.04037161533061023</v>
       </c>
       <c r="D54">
-        <v>-0.02337679825102406</v>
+        <v>0.012337709399534</v>
       </c>
       <c r="E54">
-        <v>-0.04672908134877418</v>
+        <v>0.01754588561034598</v>
       </c>
       <c r="F54">
-        <v>0.01787296772253327</v>
+        <v>0.1270583194079258</v>
       </c>
       <c r="G54">
-        <v>0.07483013894327628</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.00973921620631058</v>
+      </c>
+      <c r="H54">
+        <v>0.0559758183633513</v>
+      </c>
+      <c r="I54">
+        <v>-0.03524153722358729</v>
+      </c>
+      <c r="J54">
+        <v>-0.056243365844954</v>
+      </c>
+      <c r="K54">
+        <v>0.1269308323498869</v>
+      </c>
+      <c r="L54">
+        <v>0.08277174501828452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09458759879807108</v>
+        <v>-0.0910688261170874</v>
       </c>
       <c r="C55">
-        <v>-0.01055911753332534</v>
+        <v>0.03603507044888352</v>
       </c>
       <c r="D55">
-        <v>-0.01567782814515429</v>
+        <v>0.01998081131378278</v>
       </c>
       <c r="E55">
-        <v>0.003811915195681761</v>
+        <v>-0.01723933350288612</v>
       </c>
       <c r="F55">
-        <v>0.1834554372414237</v>
+        <v>-0.0005773211840184114</v>
       </c>
       <c r="G55">
-        <v>-0.01292673541276365</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.08201094521666469</v>
+      </c>
+      <c r="H55">
+        <v>0.06344659531445079</v>
+      </c>
+      <c r="I55">
+        <v>0.1472181558954363</v>
+      </c>
+      <c r="J55">
+        <v>-0.04295689793203399</v>
+      </c>
+      <c r="K55">
+        <v>0.02070993914935335</v>
+      </c>
+      <c r="L55">
+        <v>0.01811425502259866</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1615563376930577</v>
+        <v>-0.1570996166770667</v>
       </c>
       <c r="C56">
-        <v>-0.001097663813633562</v>
+        <v>0.05340146596361199</v>
       </c>
       <c r="D56">
-        <v>-0.001301960006054453</v>
+        <v>0.04258014550359893</v>
       </c>
       <c r="E56">
-        <v>0.05927367968623184</v>
+        <v>-0.01619966146101081</v>
       </c>
       <c r="F56">
-        <v>0.2380085473502846</v>
+        <v>-0.04426159183351214</v>
       </c>
       <c r="G56">
-        <v>-0.07036755764000008</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1366918748407238</v>
+      </c>
+      <c r="H56">
+        <v>0.04500719701776643</v>
+      </c>
+      <c r="I56">
+        <v>0.2166069512541923</v>
+      </c>
+      <c r="J56">
+        <v>-0.08170283243690638</v>
+      </c>
+      <c r="K56">
+        <v>0.002224259143540096</v>
+      </c>
+      <c r="L56">
+        <v>-0.0397369447506595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2866,1697 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.03258443158864419</v>
+        <v>-0.04882599069359043</v>
       </c>
       <c r="C58">
-        <v>-0.04812362221843854</v>
+        <v>0.04163666024719669</v>
       </c>
       <c r="D58">
-        <v>0.0329081150328672</v>
+        <v>-0.01400574355002773</v>
       </c>
       <c r="E58">
-        <v>-0.2896755002514054</v>
+        <v>0.08637567114944968</v>
       </c>
       <c r="F58">
-        <v>-0.4651802913950601</v>
+        <v>0.02415382771550596</v>
       </c>
       <c r="G58">
-        <v>0.08185118670300892</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.02269179892074122</v>
+      </c>
+      <c r="H58">
+        <v>-0.06482217653348299</v>
+      </c>
+      <c r="I58">
+        <v>-0.1503368164603056</v>
+      </c>
+      <c r="J58">
+        <v>0.1360167194456143</v>
+      </c>
+      <c r="K58">
+        <v>-0.04619550246658635</v>
+      </c>
+      <c r="L58">
+        <v>0.3990938925225281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1668715243977458</v>
+        <v>-0.2006127885434139</v>
       </c>
       <c r="C59">
-        <v>0.3898554427446725</v>
+        <v>-0.3012093319279994</v>
       </c>
       <c r="D59">
-        <v>-0.09367101041457272</v>
+        <v>0.02273853190654998</v>
       </c>
       <c r="E59">
-        <v>0.07477162772353012</v>
+        <v>-0.04448088952777775</v>
       </c>
       <c r="F59">
-        <v>0.03916626147947749</v>
+        <v>0.02428234166543233</v>
       </c>
       <c r="G59">
-        <v>0.002522541963824774</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.03226747229776406</v>
+      </c>
+      <c r="H59">
+        <v>0.07971833832121192</v>
+      </c>
+      <c r="I59">
+        <v>0.09861190788819262</v>
+      </c>
+      <c r="J59">
+        <v>0.02240986865271363</v>
+      </c>
+      <c r="K59">
+        <v>-0.008771748121298663</v>
+      </c>
+      <c r="L59">
+        <v>-0.1022705239200544</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2651280360424599</v>
+        <v>-0.2472236670438201</v>
       </c>
       <c r="C60">
-        <v>-0.07288282428848664</v>
+        <v>0.09878756993836034</v>
       </c>
       <c r="D60">
-        <v>-0.07942064611034813</v>
+        <v>0.1037676457607916</v>
       </c>
       <c r="E60">
-        <v>0.06611259279613453</v>
+        <v>-0.04216960999966934</v>
       </c>
       <c r="F60">
-        <v>-0.06779891292733731</v>
+        <v>-0.1375797784808677</v>
       </c>
       <c r="G60">
-        <v>-0.1834599033463294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.02923022628797402</v>
+      </c>
+      <c r="H60">
+        <v>-0.08402240084601968</v>
+      </c>
+      <c r="I60">
+        <v>-0.03315142348441301</v>
+      </c>
+      <c r="J60">
+        <v>-0.08962044285803815</v>
+      </c>
+      <c r="K60">
+        <v>-0.2364595820084585</v>
+      </c>
+      <c r="L60">
+        <v>-0.04763017913658688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09182969228369978</v>
+        <v>-0.100555448449438</v>
       </c>
       <c r="C61">
-        <v>-0.01959886528679639</v>
+        <v>0.04665347050829303</v>
       </c>
       <c r="D61">
-        <v>-0.00358567043944593</v>
+        <v>0.02256117796626579</v>
       </c>
       <c r="E61">
-        <v>-0.0235116957210083</v>
+        <v>-0.04917467928030323</v>
       </c>
       <c r="F61">
-        <v>0.02187723697585487</v>
+        <v>0.1283556480554319</v>
       </c>
       <c r="G61">
-        <v>0.06825906780234683</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.08786900001689661</v>
+      </c>
+      <c r="H61">
+        <v>0.01312003520731736</v>
+      </c>
+      <c r="I61">
+        <v>0.01202646217583175</v>
+      </c>
+      <c r="J61">
+        <v>0.1122389657394148</v>
+      </c>
+      <c r="K61">
+        <v>-0.03179065382676312</v>
+      </c>
+      <c r="L61">
+        <v>0.03321296708084247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1459342852120106</v>
+        <v>-0.1499626728458597</v>
       </c>
       <c r="C62">
-        <v>-0.03028773786995612</v>
+        <v>0.05380426799568082</v>
       </c>
       <c r="D62">
-        <v>0.03428049147191974</v>
+        <v>0.01775883332708349</v>
       </c>
       <c r="E62">
-        <v>0.1248625714179093</v>
+        <v>-0.02110138124492282</v>
       </c>
       <c r="F62">
-        <v>0.2382678629162615</v>
+        <v>-0.06276008401987516</v>
       </c>
       <c r="G62">
-        <v>-0.01605737002319104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.11134293947935</v>
+      </c>
+      <c r="H62">
+        <v>0.02308885385959102</v>
+      </c>
+      <c r="I62">
+        <v>0.2143878730290503</v>
+      </c>
+      <c r="J62">
+        <v>-0.1201206165731024</v>
+      </c>
+      <c r="K62">
+        <v>0.04671432444175013</v>
+      </c>
+      <c r="L62">
+        <v>-0.01054644972522475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.0423724500230404</v>
+        <v>-0.04233560168734022</v>
       </c>
       <c r="C63">
-        <v>-0.0158417053156883</v>
+        <v>0.01890947649349106</v>
       </c>
       <c r="D63">
-        <v>0.006228361027469099</v>
+        <v>-0.01732975373409167</v>
       </c>
       <c r="E63">
-        <v>-0.007896254076659686</v>
+        <v>-0.01047081457846334</v>
       </c>
       <c r="F63">
-        <v>0.01171972824813426</v>
+        <v>0.05949633647920959</v>
       </c>
       <c r="G63">
-        <v>0.03142623995002924</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.007443459555821572</v>
+      </c>
+      <c r="H63">
+        <v>0.006239206613408134</v>
+      </c>
+      <c r="I63">
+        <v>-0.01092311450929951</v>
+      </c>
+      <c r="J63">
+        <v>0.003794807001460477</v>
+      </c>
+      <c r="K63">
+        <v>0.0003665961848572776</v>
+      </c>
+      <c r="L63">
+        <v>0.05680525087263123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1043674201479249</v>
+        <v>-0.09723111924721264</v>
       </c>
       <c r="C64">
-        <v>-0.01606634111898006</v>
+        <v>0.04158855897109388</v>
       </c>
       <c r="D64">
-        <v>-0.04471666737242163</v>
+        <v>0.04856400166430885</v>
       </c>
       <c r="E64">
-        <v>-0.03721518724147305</v>
+        <v>0.01501167608150297</v>
       </c>
       <c r="F64">
-        <v>-0.02447335167407927</v>
+        <v>0.08182266291400359</v>
       </c>
       <c r="G64">
-        <v>0.05448494212202788</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02868772064741063</v>
+      </c>
+      <c r="H64">
+        <v>-0.01363857395780928</v>
+      </c>
+      <c r="I64">
+        <v>-0.1024022625301607</v>
+      </c>
+      <c r="J64">
+        <v>0.02949185580625978</v>
+      </c>
+      <c r="K64">
+        <v>-0.05090463475060012</v>
+      </c>
+      <c r="L64">
+        <v>-0.03129447729466927</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1202987663921225</v>
+        <v>-0.1180111804808275</v>
       </c>
       <c r="C65">
-        <v>-0.03524183010205306</v>
+        <v>0.02808922493102521</v>
       </c>
       <c r="D65">
-        <v>-0.02192735832903396</v>
+        <v>-0.02279212063196718</v>
       </c>
       <c r="E65">
-        <v>-0.05631810796654801</v>
+        <v>-0.01399309580402843</v>
       </c>
       <c r="F65">
-        <v>-0.199465371537264</v>
+        <v>-0.0359902383029499</v>
       </c>
       <c r="G65">
-        <v>-0.2153677590297794</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.05173797674651495</v>
+      </c>
+      <c r="H65">
+        <v>0.02743861648012319</v>
+      </c>
+      <c r="I65">
+        <v>-0.285105513177663</v>
+      </c>
+      <c r="J65">
+        <v>-0.5497924613601931</v>
+      </c>
+      <c r="K65">
+        <v>-0.2726361951155581</v>
+      </c>
+      <c r="L65">
+        <v>0.2482138156934537</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1586109415809849</v>
+        <v>-0.1397844693431854</v>
       </c>
       <c r="C66">
-        <v>-0.05230884825154065</v>
+        <v>0.1090771054743475</v>
       </c>
       <c r="D66">
-        <v>0.01684474150772745</v>
+        <v>0.0084808845214686</v>
       </c>
       <c r="E66">
-        <v>-0.01705111248726429</v>
+        <v>-0.1098445521852823</v>
       </c>
       <c r="F66">
-        <v>0.0318230397182598</v>
+        <v>0.1420756243126175</v>
       </c>
       <c r="G66">
-        <v>0.3310786485614786</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.128345957521972</v>
+      </c>
+      <c r="H66">
+        <v>-0.06597377946725014</v>
+      </c>
+      <c r="I66">
+        <v>0.004963547535464079</v>
+      </c>
+      <c r="J66">
+        <v>0.2029346809072495</v>
+      </c>
+      <c r="K66">
+        <v>-0.15801826244753</v>
+      </c>
+      <c r="L66">
+        <v>-0.07380340490726715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.09939471908764413</v>
+        <v>-0.07046619065913198</v>
       </c>
       <c r="C67">
-        <v>-0.03996118204327058</v>
+        <v>0.04516513585950648</v>
       </c>
       <c r="D67">
-        <v>-0.01603580834107278</v>
+        <v>0.009776595468056098</v>
       </c>
       <c r="E67">
-        <v>0.01290047325851399</v>
+        <v>0.01929921464071401</v>
       </c>
       <c r="F67">
-        <v>0.003160037466060649</v>
+        <v>-0.0225976588878808</v>
       </c>
       <c r="G67">
-        <v>0.04096608691710301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01859481193401832</v>
+      </c>
+      <c r="H67">
+        <v>0.02276799627168855</v>
+      </c>
+      <c r="I67">
+        <v>-0.04511947062471792</v>
+      </c>
+      <c r="J67">
+        <v>0.02829183703752163</v>
+      </c>
+      <c r="K67">
+        <v>0.004893740522932532</v>
+      </c>
+      <c r="L67">
+        <v>-0.1389932341592065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.05235640411136972</v>
+        <v>-0.1030062657602932</v>
       </c>
       <c r="C68">
-        <v>0.2967448010142527</v>
+        <v>-0.2801644065835486</v>
       </c>
       <c r="D68">
-        <v>-0.03753603163688884</v>
+        <v>-0.02080204967568121</v>
       </c>
       <c r="E68">
-        <v>0.007617876349855418</v>
+        <v>-0.0156332289006084</v>
       </c>
       <c r="F68">
-        <v>-0.00237808261384847</v>
+        <v>0.04378874540174718</v>
       </c>
       <c r="G68">
-        <v>-0.02196316223213903</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01566851474936251</v>
+      </c>
+      <c r="H68">
+        <v>0.0202321336560173</v>
+      </c>
+      <c r="I68">
+        <v>-0.005398176842402393</v>
+      </c>
+      <c r="J68">
+        <v>-0.02114332112086515</v>
+      </c>
+      <c r="K68">
+        <v>-0.01471649806266514</v>
+      </c>
+      <c r="L68">
+        <v>0.05027976846222518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.0465065881121608</v>
+        <v>-0.03991844197269711</v>
       </c>
       <c r="C69">
-        <v>-0.01772658351927297</v>
+        <v>0.002513392500699829</v>
       </c>
       <c r="D69">
-        <v>-0.009584892596625209</v>
+        <v>0.01169510463115911</v>
       </c>
       <c r="E69">
-        <v>-0.004860464453897224</v>
+        <v>0.005072314402536484</v>
       </c>
       <c r="F69">
-        <v>0.0199409278263544</v>
+        <v>0.01031136753363521</v>
       </c>
       <c r="G69">
-        <v>0.0265187106490057</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.04010823072576151</v>
+      </c>
+      <c r="H69">
+        <v>0.01444146688645505</v>
+      </c>
+      <c r="I69">
+        <v>-0.004985766431145924</v>
+      </c>
+      <c r="J69">
+        <v>-0.0235740368561146</v>
+      </c>
+      <c r="K69">
+        <v>0.0151537605064188</v>
+      </c>
+      <c r="L69">
+        <v>0.01128758268727242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.07556703834893198</v>
+        <v>-0.04980621685965838</v>
       </c>
       <c r="C70">
-        <v>-0.00795842165090955</v>
+        <v>0.01377772512637704</v>
       </c>
       <c r="D70">
-        <v>-0.04317954740235464</v>
+        <v>0.03336994133049426</v>
       </c>
       <c r="E70">
-        <v>0.02636623280403629</v>
+        <v>-0.02482182409617183</v>
       </c>
       <c r="F70">
-        <v>-0.09179614684227247</v>
+        <v>0.01948141485758554</v>
       </c>
       <c r="G70">
-        <v>-0.01693171405942255</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.007788523970592522</v>
+      </c>
+      <c r="H70">
+        <v>0.03067972685128346</v>
+      </c>
+      <c r="I70">
+        <v>-0.1381445232746357</v>
+      </c>
+      <c r="J70">
+        <v>-0.05780798240376339</v>
+      </c>
+      <c r="K70">
+        <v>0.2753507068278005</v>
+      </c>
+      <c r="L70">
+        <v>0.024105352797897</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.06060456856216072</v>
+        <v>-0.1180650010060355</v>
       </c>
       <c r="C71">
-        <v>0.2907074027462245</v>
+        <v>-0.2886767424923523</v>
       </c>
       <c r="D71">
-        <v>-0.06058985594697477</v>
+        <v>0.00893464986294319</v>
       </c>
       <c r="E71">
-        <v>0.009020269850364235</v>
+        <v>-0.003937679999885624</v>
       </c>
       <c r="F71">
-        <v>-0.01142949937385981</v>
+        <v>0.05495269178052453</v>
       </c>
       <c r="G71">
-        <v>0.005953707464365166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03893038770745426</v>
+      </c>
+      <c r="H71">
+        <v>-0.01004082060274801</v>
+      </c>
+      <c r="I71">
+        <v>-0.01862801419976452</v>
+      </c>
+      <c r="J71">
+        <v>0.002651070860040643</v>
+      </c>
+      <c r="K71">
+        <v>-0.0306159485903665</v>
+      </c>
+      <c r="L71">
+        <v>0.01254161039952937</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1563661489745028</v>
+        <v>-0.1488198718665304</v>
       </c>
       <c r="C72">
-        <v>0.03499942577954446</v>
+        <v>0.01237905576992775</v>
       </c>
       <c r="D72">
-        <v>0.233999300336283</v>
+        <v>-0.09642815660384114</v>
       </c>
       <c r="E72">
-        <v>0.03404460724820303</v>
+        <v>-0.02960961458031703</v>
       </c>
       <c r="F72">
-        <v>0.03253150561801462</v>
+        <v>-0.006721408990758134</v>
       </c>
       <c r="G72">
-        <v>0.06793548077343589</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.06355970372061134</v>
+      </c>
+      <c r="H72">
+        <v>-0.02638900344444954</v>
+      </c>
+      <c r="I72">
+        <v>0.04980803064422022</v>
+      </c>
+      <c r="J72">
+        <v>-0.1342308439565286</v>
+      </c>
+      <c r="K72">
+        <v>-0.07524758749647417</v>
+      </c>
+      <c r="L72">
+        <v>-0.05134535706410138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2905810041187487</v>
+        <v>-0.2408643387113963</v>
       </c>
       <c r="C73">
-        <v>-0.1813885689054781</v>
+        <v>0.1219102621437545</v>
       </c>
       <c r="D73">
-        <v>-0.05813532854255846</v>
+        <v>0.1602034605411388</v>
       </c>
       <c r="E73">
-        <v>0.1441228855704659</v>
+        <v>-0.1075225777578151</v>
       </c>
       <c r="F73">
-        <v>-0.2765843858063044</v>
+        <v>-0.4447367459301504</v>
       </c>
       <c r="G73">
-        <v>-0.2471361004134563</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.0428385718073078</v>
+      </c>
+      <c r="H73">
+        <v>-0.1443464838814859</v>
+      </c>
+      <c r="I73">
+        <v>-0.2120722074695478</v>
+      </c>
+      <c r="J73">
+        <v>0.2537320550111845</v>
+      </c>
+      <c r="K73">
+        <v>-0.2166005334385013</v>
+      </c>
+      <c r="L73">
+        <v>-0.02475617935078053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.09670726710636621</v>
+        <v>-0.1125412579978448</v>
       </c>
       <c r="C74">
-        <v>-0.03782621505929731</v>
+        <v>0.06688674238123914</v>
       </c>
       <c r="D74">
-        <v>0.002079752064402866</v>
+        <v>0.005478587842567233</v>
       </c>
       <c r="E74">
-        <v>0.01286796490199324</v>
+        <v>-0.003606108431932968</v>
       </c>
       <c r="F74">
-        <v>0.09759801607323458</v>
+        <v>-0.05245089808717689</v>
       </c>
       <c r="G74">
-        <v>-0.03708711299136101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.1267106661642672</v>
+      </c>
+      <c r="H74">
+        <v>0.01770755158451003</v>
+      </c>
+      <c r="I74">
+        <v>0.1034067056167931</v>
+      </c>
+      <c r="J74">
+        <v>-0.04713515932667674</v>
+      </c>
+      <c r="K74">
+        <v>0.008302321122204689</v>
+      </c>
+      <c r="L74">
+        <v>0.01260664028573707</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09558660963572178</v>
+        <v>-0.1040771798504319</v>
       </c>
       <c r="C75">
-        <v>-0.01810799273005176</v>
+        <v>0.04686839197287275</v>
       </c>
       <c r="D75">
-        <v>0.02137650784291924</v>
+        <v>-0.000895432255256741</v>
       </c>
       <c r="E75">
-        <v>0.03651029110842833</v>
+        <v>-0.004410359857167167</v>
       </c>
       <c r="F75">
-        <v>0.1158486750571854</v>
+        <v>-0.03909688320166231</v>
       </c>
       <c r="G75">
-        <v>-0.07505249714026944</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.04494997070005943</v>
+      </c>
+      <c r="H75">
+        <v>0.04462680382439786</v>
+      </c>
+      <c r="I75">
+        <v>0.1320093084367177</v>
+      </c>
+      <c r="J75">
+        <v>-0.05031823013278221</v>
+      </c>
+      <c r="K75">
+        <v>0.00913317316803882</v>
+      </c>
+      <c r="L75">
+        <v>0.003801455431104149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1359414629522741</v>
+        <v>-0.06522222712085964</v>
       </c>
       <c r="C76">
-        <v>-0.03470408724599214</v>
+        <v>0.03378447443186188</v>
       </c>
       <c r="D76">
-        <v>-0.006353057483238843</v>
+        <v>0.02653814349234387</v>
       </c>
       <c r="E76">
-        <v>-0.005443271420089416</v>
+        <v>0.002840086478216314</v>
       </c>
       <c r="F76">
-        <v>0.2297254601281569</v>
+        <v>-0.07161200266013586</v>
       </c>
       <c r="G76">
-        <v>-0.1008087100737507</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05403411505591816</v>
+      </c>
+      <c r="H76">
+        <v>0.08637063353431916</v>
+      </c>
+      <c r="I76">
+        <v>0.1461338296783636</v>
+      </c>
+      <c r="J76">
+        <v>-0.015089283733595</v>
+      </c>
+      <c r="K76">
+        <v>0.02131068119205907</v>
+      </c>
+      <c r="L76">
+        <v>0.01383353110789486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.08649999202360052</v>
+        <v>-0.07352317299992306</v>
       </c>
       <c r="C77">
-        <v>-0.004042145399659695</v>
+        <v>0.03319640563541479</v>
       </c>
       <c r="D77">
-        <v>-0.04742595295003715</v>
+        <v>0.0391567249813139</v>
       </c>
       <c r="E77">
-        <v>-0.06315130442113048</v>
+        <v>-0.008393771620872813</v>
       </c>
       <c r="F77">
-        <v>-0.1313311271935687</v>
+        <v>0.2291194164857746</v>
       </c>
       <c r="G77">
-        <v>0.2829422212222401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03190838265435535</v>
+      </c>
+      <c r="H77">
+        <v>0.03343279022034155</v>
+      </c>
+      <c r="I77">
+        <v>-0.205634604328933</v>
+      </c>
+      <c r="J77">
+        <v>-0.07506495081351242</v>
+      </c>
+      <c r="K77">
+        <v>-0.09965846256536003</v>
+      </c>
+      <c r="L77">
+        <v>-0.6447126262372781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.2045346862928073</v>
+        <v>-0.1601217517738541</v>
       </c>
       <c r="C78">
-        <v>-0.06228274260199096</v>
+        <v>0.1088757996270711</v>
       </c>
       <c r="D78">
-        <v>-0.06310175896713656</v>
+        <v>-0.04489244496589639</v>
       </c>
       <c r="E78">
-        <v>-0.181145288030429</v>
+        <v>0.1792621918233799</v>
       </c>
       <c r="F78">
-        <v>-0.01519908220055022</v>
+        <v>0.1639811800926325</v>
       </c>
       <c r="G78">
-        <v>0.05525752866741918</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.6889321246156871</v>
+      </c>
+      <c r="H78">
+        <v>0.4639229087415812</v>
+      </c>
+      <c r="I78">
+        <v>0.2535762266797468</v>
+      </c>
+      <c r="J78">
+        <v>0.09186485360958391</v>
+      </c>
+      <c r="K78">
+        <v>-0.2155345164384003</v>
+      </c>
+      <c r="L78">
+        <v>0.00197502869999897</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1363111113832941</v>
+        <v>-0.1329356196691421</v>
       </c>
       <c r="C79">
-        <v>-0.01710998867807714</v>
+        <v>0.04815504689577715</v>
       </c>
       <c r="D79">
-        <v>0.006635313883387978</v>
+        <v>0.01597015242974923</v>
       </c>
       <c r="E79">
-        <v>0.025260213491964</v>
+        <v>0.005135671834774526</v>
       </c>
       <c r="F79">
-        <v>0.167021194876164</v>
+        <v>-0.01195125302970496</v>
       </c>
       <c r="G79">
-        <v>0.009904283510232207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.110261736123515</v>
+      </c>
+      <c r="H79">
+        <v>0.02322788751823142</v>
+      </c>
+      <c r="I79">
+        <v>0.1538071002387204</v>
+      </c>
+      <c r="J79">
+        <v>-0.08490915954040015</v>
+      </c>
+      <c r="K79">
+        <v>0.00682480365265062</v>
+      </c>
+      <c r="L79">
+        <v>-0.003332754139075878</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03572119081656619</v>
+        <v>-0.06465657968701574</v>
       </c>
       <c r="C80">
-        <v>-0.01202038483133031</v>
+        <v>0.04337632520941219</v>
       </c>
       <c r="D80">
-        <v>-0.008377870491449462</v>
+        <v>0.02815335525785409</v>
       </c>
       <c r="E80">
-        <v>0.04482172784888495</v>
+        <v>-0.0672217800865676</v>
       </c>
       <c r="F80">
-        <v>-0.03040836051099238</v>
+        <v>0.03584595141016868</v>
       </c>
       <c r="G80">
-        <v>0.03999501973580148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.009919249533924888</v>
+      </c>
+      <c r="H80">
+        <v>0.09703118406986352</v>
+      </c>
+      <c r="I80">
+        <v>-0.03556464919283525</v>
+      </c>
+      <c r="J80">
+        <v>0.05316472315003212</v>
+      </c>
+      <c r="K80">
+        <v>0.07673574909706127</v>
+      </c>
+      <c r="L80">
+        <v>0.1936658323467925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1098773715635431</v>
+        <v>-0.1291576899229572</v>
       </c>
       <c r="C81">
-        <v>-0.01516016522374301</v>
+        <v>0.05553870393414264</v>
       </c>
       <c r="D81">
-        <v>-0.009053416018765956</v>
+        <v>0.02027314926218678</v>
       </c>
       <c r="E81">
-        <v>0.02243921467995007</v>
+        <v>0.005828950416218169</v>
       </c>
       <c r="F81">
-        <v>0.1436856641830486</v>
+        <v>0.0002947666542886656</v>
       </c>
       <c r="G81">
-        <v>-0.03443920669898393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.07062845485597297</v>
+      </c>
+      <c r="H81">
+        <v>0.0002024587173548214</v>
+      </c>
+      <c r="I81">
+        <v>0.1364310097101809</v>
+      </c>
+      <c r="J81">
+        <v>-0.04615468779484579</v>
+      </c>
+      <c r="K81">
+        <v>0.02414473589604459</v>
+      </c>
+      <c r="L81">
+        <v>-0.002020991561565836</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1094358178352028</v>
+        <v>-0.1378658693273116</v>
       </c>
       <c r="C82">
-        <v>-0.02595969072723611</v>
+        <v>0.05176051086434791</v>
       </c>
       <c r="D82">
-        <v>-0.05009072686815391</v>
+        <v>0.04493390845382706</v>
       </c>
       <c r="E82">
-        <v>0.05522061987718377</v>
+        <v>-0.01172695544234724</v>
       </c>
       <c r="F82">
-        <v>0.2414963278125375</v>
+        <v>-0.03981754465916934</v>
       </c>
       <c r="G82">
-        <v>0.006504784973276147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.1592986438687694</v>
+      </c>
+      <c r="H82">
+        <v>0.03948551560642925</v>
+      </c>
+      <c r="I82">
+        <v>0.2348000465662652</v>
+      </c>
+      <c r="J82">
+        <v>-0.0005583189709160314</v>
+      </c>
+      <c r="K82">
+        <v>0.1264011352903079</v>
+      </c>
+      <c r="L82">
+        <v>-0.005193519479928474</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.101984289750317</v>
+        <v>-0.09283243796707237</v>
       </c>
       <c r="C83">
-        <v>-0.06537728167463873</v>
+        <v>0.1063176897324259</v>
       </c>
       <c r="D83">
-        <v>-0.06038614785668816</v>
+        <v>0.01978203637426365</v>
       </c>
       <c r="E83">
-        <v>0.01053852845185926</v>
+        <v>-0.008451769527051437</v>
       </c>
       <c r="F83">
-        <v>-0.07302510042056329</v>
+        <v>0.072792247828028</v>
       </c>
       <c r="G83">
-        <v>0.1022178468151485</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03939841323487696</v>
+      </c>
+      <c r="H83">
+        <v>0.1122903411161628</v>
+      </c>
+      <c r="I83">
+        <v>-0.1156623114357417</v>
+      </c>
+      <c r="J83">
+        <v>-0.02151730254879919</v>
+      </c>
+      <c r="K83">
+        <v>0.1400004488020609</v>
+      </c>
+      <c r="L83">
+        <v>0.002923867456691537</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.05589138113642383</v>
+        <v>-0.05401523630704987</v>
       </c>
       <c r="C84">
-        <v>-0.02584762965436112</v>
+        <v>-0.0327117407325377</v>
       </c>
       <c r="D84">
-        <v>0.04390469847618602</v>
+        <v>0.006302750063034053</v>
       </c>
       <c r="E84">
-        <v>-0.0393844456400053</v>
+        <v>-0.02063339373819398</v>
       </c>
       <c r="F84">
-        <v>0.02446664514397576</v>
+        <v>0.004660943984239694</v>
       </c>
       <c r="G84">
-        <v>-0.02394842011928064</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.1879627703674062</v>
+      </c>
+      <c r="H84">
+        <v>-0.1521496020455791</v>
+      </c>
+      <c r="I84">
+        <v>0.08389242227938692</v>
+      </c>
+      <c r="J84">
+        <v>0.2954782936691071</v>
+      </c>
+      <c r="K84">
+        <v>0.09078511227143564</v>
+      </c>
+      <c r="L84">
+        <v>0.2137006666648071</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.101133989762342</v>
+        <v>-0.1148581102266784</v>
       </c>
       <c r="C85">
-        <v>-0.02771170725198968</v>
+        <v>0.04166850913761157</v>
       </c>
       <c r="D85">
-        <v>-0.01939298197657891</v>
+        <v>0.04491417879098836</v>
       </c>
       <c r="E85">
-        <v>0.02153128884939638</v>
+        <v>0.0008420692125937101</v>
       </c>
       <c r="F85">
-        <v>0.1945884975936756</v>
+        <v>-0.01060846456510095</v>
       </c>
       <c r="G85">
-        <v>-0.0006343919383887831</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1023248754808475</v>
+      </c>
+      <c r="H85">
+        <v>0.02804957712419454</v>
+      </c>
+      <c r="I85">
+        <v>0.1600592993995169</v>
+      </c>
+      <c r="J85">
+        <v>-0.08081965813076321</v>
+      </c>
+      <c r="K85">
+        <v>-0.01121749795726878</v>
+      </c>
+      <c r="L85">
+        <v>-0.0237302824643558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.06272722376969327</v>
+        <v>-0.08039364166303573</v>
       </c>
       <c r="C86">
-        <v>-0.02725380801126319</v>
+        <v>0.02048938600142023</v>
       </c>
       <c r="D86">
-        <v>-0.0452677287188871</v>
+        <v>0.09041612658526101</v>
       </c>
       <c r="E86">
-        <v>-0.04893787373110291</v>
+        <v>0.02895317917242766</v>
       </c>
       <c r="F86">
-        <v>-0.04576219976209372</v>
+        <v>0.097672204908289</v>
       </c>
       <c r="G86">
-        <v>0.1208256060861906</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.3880991026833311</v>
+      </c>
+      <c r="H86">
+        <v>-0.694636914676337</v>
+      </c>
+      <c r="I86">
+        <v>0.2479690056385903</v>
+      </c>
+      <c r="J86">
+        <v>-0.2045380104137909</v>
+      </c>
+      <c r="K86">
+        <v>0.1300269804721113</v>
+      </c>
+      <c r="L86">
+        <v>-0.02369879866501709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.1031982856831256</v>
+        <v>-0.1136692242898609</v>
       </c>
       <c r="C87">
-        <v>-0.0563045157819136</v>
+        <v>0.09854180171778318</v>
       </c>
       <c r="D87">
-        <v>-0.02107678764767638</v>
+        <v>0.04001961028086324</v>
       </c>
       <c r="E87">
-        <v>-0.04593940628501762</v>
+        <v>0.03061712594720636</v>
       </c>
       <c r="F87">
-        <v>-0.01801349784847423</v>
+        <v>0.1217110965946419</v>
       </c>
       <c r="G87">
-        <v>0.1098042683685575</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.01967227454796835</v>
+      </c>
+      <c r="H87">
+        <v>-0.02013037237555411</v>
+      </c>
+      <c r="I87">
+        <v>-0.1406062234409093</v>
+      </c>
+      <c r="J87">
+        <v>-0.0774527182900305</v>
+      </c>
+      <c r="K87">
+        <v>0.1417171640944678</v>
+      </c>
+      <c r="L87">
+        <v>-0.2598448084399547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06492609802935026</v>
+        <v>-0.05723728238710434</v>
       </c>
       <c r="C88">
-        <v>-0.03238276354728346</v>
+        <v>0.04888643085971955</v>
       </c>
       <c r="D88">
-        <v>-0.02507376932584059</v>
+        <v>0.02928492213971063</v>
       </c>
       <c r="E88">
-        <v>-0.01252375596550428</v>
+        <v>-0.02814053097067604</v>
       </c>
       <c r="F88">
-        <v>-0.005955803981004432</v>
+        <v>0.03328206065896318</v>
       </c>
       <c r="G88">
-        <v>0.06900573487415955</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04547730270251002</v>
+      </c>
+      <c r="H88">
+        <v>0.007909711396954648</v>
+      </c>
+      <c r="I88">
+        <v>-0.02432355891614695</v>
+      </c>
+      <c r="J88">
+        <v>0.03326291414468231</v>
+      </c>
+      <c r="K88">
+        <v>-0.01476886679405191</v>
+      </c>
+      <c r="L88">
+        <v>0.06153259746844101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1097607543661928</v>
+        <v>-0.1749643590771938</v>
       </c>
       <c r="C89">
-        <v>0.3612571349277973</v>
+        <v>-0.372659727302612</v>
       </c>
       <c r="D89">
-        <v>-0.1159290314072436</v>
+        <v>0.03551540920380014</v>
       </c>
       <c r="E89">
-        <v>-0.02005424652071477</v>
+        <v>0.0469181746540308</v>
       </c>
       <c r="F89">
-        <v>-0.07858657939037478</v>
+        <v>0.03099878425687709</v>
       </c>
       <c r="G89">
-        <v>0.01578224988171561</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03010678794624225</v>
+      </c>
+      <c r="H89">
+        <v>0.03081511270409281</v>
+      </c>
+      <c r="I89">
+        <v>-0.07009319610319484</v>
+      </c>
+      <c r="J89">
+        <v>0.05033864817892372</v>
+      </c>
+      <c r="K89">
+        <v>0.04271251585326074</v>
+      </c>
+      <c r="L89">
+        <v>0.01796051330783241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.0894807926027785</v>
+        <v>-0.1362852146101958</v>
       </c>
       <c r="C90">
-        <v>0.2850477247503074</v>
+        <v>-0.2750915501826104</v>
       </c>
       <c r="D90">
-        <v>-0.05608326981834431</v>
+        <v>0.01423684638790197</v>
       </c>
       <c r="E90">
-        <v>-0.04775112689269117</v>
+        <v>-0.0004528806818513908</v>
       </c>
       <c r="F90">
-        <v>-0.03972628899757789</v>
+        <v>0.04509964149613312</v>
       </c>
       <c r="G90">
-        <v>0.06914661780564604</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01878368510724205</v>
+      </c>
+      <c r="H90">
+        <v>-0.04374227020261195</v>
+      </c>
+      <c r="I90">
+        <v>-0.04315817120301021</v>
+      </c>
+      <c r="J90">
+        <v>0.03907839238390171</v>
+      </c>
+      <c r="K90">
+        <v>-0.04267912200187172</v>
+      </c>
+      <c r="L90">
+        <v>-0.006138927223049335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.08419129868628444</v>
+        <v>-0.08117972980224122</v>
       </c>
       <c r="C91">
-        <v>-0.02452864613716977</v>
+        <v>0.03834380905045724</v>
       </c>
       <c r="D91">
-        <v>-1.297388043747785e-05</v>
+        <v>0.02508731624299354</v>
       </c>
       <c r="E91">
-        <v>0.02106379693810615</v>
+        <v>0.006658624066982408</v>
       </c>
       <c r="F91">
-        <v>0.07610563676259083</v>
+        <v>-0.0322195561551476</v>
       </c>
       <c r="G91">
-        <v>-0.0703459954630014</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.05943702141573624</v>
+      </c>
+      <c r="H91">
+        <v>0.01808223226328046</v>
+      </c>
+      <c r="I91">
+        <v>0.0993024224240399</v>
+      </c>
+      <c r="J91">
+        <v>-0.03153012585579769</v>
+      </c>
+      <c r="K91">
+        <v>0.01369462257606575</v>
+      </c>
+      <c r="L91">
+        <v>0.01664960161622968</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.08218267887947772</v>
+        <v>-0.1490095287499715</v>
       </c>
       <c r="C92">
-        <v>0.3384527814972066</v>
+        <v>-0.3259388497787193</v>
       </c>
       <c r="D92">
-        <v>-0.07311963625821924</v>
+        <v>0.008656525176536707</v>
       </c>
       <c r="E92">
-        <v>-0.01763392655390643</v>
+        <v>0.03946015247160089</v>
       </c>
       <c r="F92">
-        <v>-0.0403740433194807</v>
+        <v>0.06272165168993028</v>
       </c>
       <c r="G92">
-        <v>-0.0648450161897666</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02080999909566953</v>
+      </c>
+      <c r="H92">
+        <v>0.05477546215871016</v>
+      </c>
+      <c r="I92">
+        <v>0.01249945748981378</v>
+      </c>
+      <c r="J92">
+        <v>0.04664029192912413</v>
+      </c>
+      <c r="K92">
+        <v>0.01065563027041115</v>
+      </c>
+      <c r="L92">
+        <v>0.03499312878985422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.09740280375628323</v>
+        <v>-0.1405474299777643</v>
       </c>
       <c r="C93">
-        <v>0.2916157995372535</v>
+        <v>-0.3106468373692279</v>
       </c>
       <c r="D93">
-        <v>-0.05631703768339789</v>
+        <v>0.02581754722036338</v>
       </c>
       <c r="E93">
-        <v>-0.01063940547019105</v>
+        <v>-0.02655722843534813</v>
       </c>
       <c r="F93">
-        <v>-0.02135857631659826</v>
+        <v>0.01604128146074951</v>
       </c>
       <c r="G93">
-        <v>-0.008407656342482656</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.01716439608489116</v>
+      </c>
+      <c r="H93">
+        <v>-0.04649872940045431</v>
+      </c>
+      <c r="I93">
+        <v>-0.01608267833086032</v>
+      </c>
+      <c r="J93">
+        <v>-0.006902744511461637</v>
+      </c>
+      <c r="K93">
+        <v>0.01585381045856908</v>
+      </c>
+      <c r="L93">
+        <v>0.0193633864209195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.09381619721857035</v>
+        <v>-0.1215682127776851</v>
       </c>
       <c r="C94">
-        <v>-0.04582458094266295</v>
+        <v>0.0561748481262023</v>
       </c>
       <c r="D94">
-        <v>0.01226813937454643</v>
+        <v>0.01309448581669448</v>
       </c>
       <c r="E94">
-        <v>0.004624329782684958</v>
+        <v>0.01331146894455084</v>
       </c>
       <c r="F94">
-        <v>0.1408263744011596</v>
+        <v>-0.05261757127862039</v>
       </c>
       <c r="G94">
-        <v>-0.0499136946942155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.0843623055110959</v>
+      </c>
+      <c r="H94">
+        <v>0.02891445411906716</v>
+      </c>
+      <c r="I94">
+        <v>0.1360213579891311</v>
+      </c>
+      <c r="J94">
+        <v>-0.01192731419168949</v>
+      </c>
+      <c r="K94">
+        <v>-0.006643003117577983</v>
+      </c>
+      <c r="L94">
+        <v>0.05457193526082307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1325326492373364</v>
+        <v>-0.1247519407815674</v>
       </c>
       <c r="C95">
-        <v>-0.07139021313955662</v>
+        <v>0.07084719156585852</v>
       </c>
       <c r="D95">
-        <v>-0.06255895499374838</v>
+        <v>0.04677147779354263</v>
       </c>
       <c r="E95">
-        <v>-0.01806513546956934</v>
+        <v>0.02202259298006076</v>
       </c>
       <c r="F95">
-        <v>-0.0542017865871414</v>
+        <v>0.0694762886563427</v>
       </c>
       <c r="G95">
-        <v>0.08980840405839309</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1303849733985857</v>
+      </c>
+      <c r="H95">
+        <v>-0.1074075697798261</v>
+      </c>
+      <c r="I95">
+        <v>-0.1335881233684504</v>
+      </c>
+      <c r="J95">
+        <v>-0.0157412894537571</v>
+      </c>
+      <c r="K95">
+        <v>0.160031385714516</v>
+      </c>
+      <c r="L95">
+        <v>0.1165294333263052</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.00505724402542384</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.004625278068006778</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0004674021601262883</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.0003792760848434793</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.005538926294192768</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.0171790850507022</v>
+      </c>
+      <c r="H96">
+        <v>0.01764288948815746</v>
+      </c>
+      <c r="I96">
+        <v>-0.005304116925297791</v>
+      </c>
+      <c r="J96">
+        <v>-0.005738942387943004</v>
+      </c>
+      <c r="K96">
+        <v>-0.01215320309504618</v>
+      </c>
+      <c r="L96">
+        <v>-0.01568072044148858</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2110783688527026</v>
+        <v>-0.1920880435561478</v>
       </c>
       <c r="C97">
-        <v>0.1489723501123978</v>
+        <v>0.04142471994454245</v>
       </c>
       <c r="D97">
-        <v>0.8985196870764127</v>
+        <v>-0.9361007631201069</v>
       </c>
       <c r="E97">
-        <v>0.008628516213544934</v>
+        <v>-0.1464461627433443</v>
       </c>
       <c r="F97">
-        <v>-0.08868030978094323</v>
+        <v>-0.06628961068895318</v>
       </c>
       <c r="G97">
-        <v>0.0288077073861887</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03016534946601894</v>
+      </c>
+      <c r="H97">
+        <v>-0.1104576484062994</v>
+      </c>
+      <c r="I97">
+        <v>-0.01123387065448068</v>
+      </c>
+      <c r="J97">
+        <v>0.02445631610360041</v>
+      </c>
+      <c r="K97">
+        <v>0.05004000543192565</v>
+      </c>
+      <c r="L97">
+        <v>-0.04805342300756758</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.3042273029677442</v>
+        <v>-0.2594586583391508</v>
       </c>
       <c r="C98">
-        <v>-0.0976887984725755</v>
+        <v>0.08513247236466852</v>
       </c>
       <c r="D98">
-        <v>-0.07805510383930893</v>
+        <v>0.04917116300432409</v>
       </c>
       <c r="E98">
-        <v>0.2158458164772666</v>
+        <v>0.02258258950338125</v>
       </c>
       <c r="F98">
-        <v>-0.2046881818775873</v>
+        <v>-0.3913813112781103</v>
       </c>
       <c r="G98">
-        <v>-0.2721163593646999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1678829980146249</v>
+      </c>
+      <c r="H98">
+        <v>0.2222773222687855</v>
+      </c>
+      <c r="I98">
+        <v>-0.2271312385403468</v>
+      </c>
+      <c r="J98">
+        <v>0.0639978205839308</v>
+      </c>
+      <c r="K98">
+        <v>0.5006153611869064</v>
+      </c>
+      <c r="L98">
+        <v>-0.0806269433693337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.0813824372299075</v>
+        <v>-0.06305047891681036</v>
       </c>
       <c r="C99">
-        <v>-0.0367342153925846</v>
+        <v>0.02880423841854154</v>
       </c>
       <c r="D99">
-        <v>-0.005911900543695511</v>
+        <v>0.01229221187241771</v>
       </c>
       <c r="E99">
-        <v>0.01224028329812855</v>
+        <v>0.005866090189551133</v>
       </c>
       <c r="F99">
-        <v>0.01939575666612826</v>
+        <v>-0.01484532994350557</v>
       </c>
       <c r="G99">
-        <v>0.01454407961209161</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.001804322087039082</v>
+      </c>
+      <c r="H99">
+        <v>0.001883382307560873</v>
+      </c>
+      <c r="I99">
+        <v>0.02126024176011127</v>
+      </c>
+      <c r="J99">
+        <v>0.01214381033192861</v>
+      </c>
+      <c r="K99">
+        <v>-0.04146488475424649</v>
+      </c>
+      <c r="L99">
+        <v>-0.008542380915801374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.01000956364715375</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.01124721325217781</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.05080221062673218</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.0133637292814133</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03376239254311348</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.04225408871737782</v>
+      </c>
+      <c r="H100">
+        <v>0.1007709131342446</v>
+      </c>
+      <c r="I100">
+        <v>-0.079468561374527</v>
+      </c>
+      <c r="J100">
+        <v>0.05200275167961456</v>
+      </c>
+      <c r="K100">
+        <v>0.1111704175220886</v>
+      </c>
+      <c r="L100">
+        <v>0.02994189905537878</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05581323386539804</v>
+        <v>-0.04262721662588027</v>
       </c>
       <c r="C101">
-        <v>-0.004229628497179518</v>
+        <v>0.02507938123623162</v>
       </c>
       <c r="D101">
-        <v>-0.01920979915861569</v>
+        <v>0.02494717098176226</v>
       </c>
       <c r="E101">
-        <v>-0.04108025557591895</v>
+        <v>-0.001232631108633356</v>
       </c>
       <c r="F101">
-        <v>0.0262087169980626</v>
+        <v>0.06049702641972477</v>
       </c>
       <c r="G101">
-        <v>0.01811758186716947</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.03444470388391219</v>
+      </c>
+      <c r="H101">
+        <v>0.003933326532196565</v>
+      </c>
+      <c r="I101">
+        <v>0.001173029936576257</v>
+      </c>
+      <c r="J101">
+        <v>-0.03645987998146827</v>
+      </c>
+      <c r="K101">
+        <v>0.07011067261708635</v>
+      </c>
+      <c r="L101">
+        <v>0.06829790617752288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
